--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2311934.678690667</v>
+        <v>2307922.068676673</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9507242.414851872</v>
+        <v>9507242.41485187</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>236.1496593854053</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>35.11405775107605</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>47.41254713315882</v>
       </c>
       <c r="X4" t="n">
-        <v>39.50038062819537</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>60.31382691113713</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>150.9601371840616</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>238.9171930685451</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>127.2828888580123</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>245.8056267012325</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>364.8584806417912</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>168.3037644100277</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>174.7683347992599</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>177.9413471369465</v>
       </c>
       <c r="V16" t="n">
-        <v>79.90816078628993</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>79.70119244397746</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>120.204384931623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>60.25690685266579</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>243.1373908222621</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.405499672556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>180.1003471321691</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74993283584265</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>187.2400442609681</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>180.9726497471659</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>68.11883945936999</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>203.1332405899842</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20.25102067617261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>114.6638016462583</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.338782035317</v>
+        <v>2244.121949002408</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.376265094905</v>
+        <v>1875.159432061997</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881544</v>
+        <v>1516.893733455246</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1131.105480857002</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>720.1195760673943</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>305.0471259123908</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2705.54371233633</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X2" t="n">
-        <v>2332.07795407525</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.938622099438</v>
+        <v>2630.72178906653</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,34 +4427,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403.1511359853714</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>234.2149530574645</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X4" t="n">
-        <v>805.5921799591413</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>584.7996008156111</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4606,13 +4606,13 @@
         <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686068</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064744</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080124</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986296</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.5487792519424</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C7" t="n">
-        <v>530.5487792519424</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995254</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X7" t="n">
-        <v>751.3413583954725</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.5487792519424</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1257.755181644084</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>888.7926647036722</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>530.5269660969217</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2034.494353684017</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.355021708206</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>482.8906159540807</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1475.774404238476</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1475.774404238476</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1221.089916032589</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>931.6727459956281</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>703.6831950976108</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>482.8906159540807</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,22 +5272,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5296,10 +5296,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,73 +5412,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
         <v>1280.315625093766</v>
@@ -5506,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1353.195110654903</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3006.417838136243</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.417838136243</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.301198723907</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.388105141514</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>449.4852666057155</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>301.5721730233224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>154.6822255254121</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153951</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741615</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4507.978318053497</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4262.384993990606</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990606</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953645</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055628</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3091.514342801865</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>3091.514342801865</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.39770338953</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807137</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926976</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1244.570007809457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1016.58045691144</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>1016.58045691144</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2802.912564146153</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2802.912564146153</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2652.795924733818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2504.882831151424</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151424</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3205.353608119923</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>2984.561028976393</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459582</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C40" t="n">
-        <v>768.5380889459582</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>618.4214495336224</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>618.4214495336224</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>471.531502035712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>304.335402750592</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>162.6235715927901</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7742,10 +7742,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>878.3568999154069</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>728.2402605030711</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>580.327166920678</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>433.4372194227676</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>111.4161395899842</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="V16" t="n">
-        <v>172.2294825375381</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>206.8218058926136</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>25.21666309130821</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>43.04708356698202</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.4264805093813</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>106.084127257075</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>99.28295407562291</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>44.73700564187129</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>13.14699685919554</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>83.05123379925999</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>159.5809595057647</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>50.86033664601051</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>832630.7051995175</v>
+        <v>832630.7051995177</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982122</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316952</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26441,13 +26441,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-912471.3138439429</v>
+        <v>-912471.3138439425</v>
       </c>
       <c r="C6" t="n">
         <v>416273.4318836494</v>
       </c>
       <c r="D6" t="n">
-        <v>416273.4318836497</v>
+        <v>416273.4318836494</v>
       </c>
       <c r="E6" t="n">
-        <v>166438.0379544238</v>
+        <v>166090.6587000669</v>
       </c>
       <c r="F6" t="n">
-        <v>491850.4997617794</v>
+        <v>491503.120507422</v>
       </c>
       <c r="G6" t="n">
-        <v>491850.4997617793</v>
+        <v>491503.1205074221</v>
       </c>
       <c r="H6" t="n">
-        <v>491850.4997617792</v>
+        <v>491503.120507422</v>
       </c>
       <c r="I6" t="n">
-        <v>491850.4997617792</v>
+        <v>491503.120507422</v>
       </c>
       <c r="J6" t="n">
-        <v>274319.2973645019</v>
+        <v>273971.9181101445</v>
       </c>
       <c r="K6" t="n">
-        <v>491850.4997617793</v>
+        <v>491503.1205074222</v>
       </c>
       <c r="L6" t="n">
-        <v>491850.4997617791</v>
+        <v>491503.1205074221</v>
       </c>
       <c r="M6" t="n">
-        <v>406795.4718262674</v>
+        <v>406448.0925719101</v>
       </c>
       <c r="N6" t="n">
-        <v>491850.4997617792</v>
+        <v>491503.1205074222</v>
       </c>
       <c r="O6" t="n">
-        <v>491850.4997617793</v>
+        <v>491503.120507422</v>
       </c>
       <c r="P6" t="n">
-        <v>491850.4997617794</v>
+        <v>491503.1205074221</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>58.45810500191519</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>314.1269109663369</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>239.1104512034322</v>
       </c>
       <c r="X4" t="n">
-        <v>186.2092747608418</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>294.3692147095458</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>235.277801471992</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>47.29464513706782</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>98.42676653102484</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>108.8774149194505</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>4.872620036677802</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>51.24518486614147</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>730.4561889249562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>640.2652944187041</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>599.1144768416229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>498.1312604966859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2307922.068676673</v>
+        <v>2309682.598979458</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1496593854053</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>233.6829599607964</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W4" t="n">
-        <v>47.41254713315882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.9601371840616</v>
+        <v>150.9601371840612</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>238.9171930685451</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>245.8056267012325</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>140.3578935194472</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722636</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>20.92847288552966</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>187.2551470558743</v>
       </c>
       <c r="U16" t="n">
-        <v>177.9413471369465</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>180.1003471321691</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>10.74993283584265</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>187.3950166973333</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="36">
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4285301601181</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>203.1332405899842</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2244.121949002408</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1875.159432061997</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1516.893733455246</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1131.105480857002</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>720.1195760673943</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>305.0471259123908</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4366,16 +4366,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.72178906653</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y2" t="n">
-        <v>2630.72178906653</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882605</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,25 +4591,25 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1685.964050039457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1431.27956183357</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1141.86239179661</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>913.8728408985925</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>693.0802617550623</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>268.2622120761612</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>261.3167113269578</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>250.2846652123583</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,49 +5044,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U16" t="n">
-        <v>1797.722346028744</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5652,58 +5652,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
         <v>1746.193029533436</v>
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,28 +6147,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2437.724555511392</v>
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6366,22 +6366,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>962.6357307816187</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C34" t="n">
-        <v>793.6995478537118</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>643.582908441376</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>495.6698148589829</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.284195611858</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.644273983533</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U40" t="n">
-        <v>2022.176527098168</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V40" t="n">
-        <v>1767.492038892281</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W40" t="n">
-        <v>1478.07486885532</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X40" t="n">
-        <v>1250.085317957303</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.292738813773</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.44677382459199</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>30.15030327141392</v>
       </c>
       <c r="U16" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>106.084127257075</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>64.74262662649468</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>38.59775584152646</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>83.05123379925999</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>832630.7051995177</v>
+        <v>832630.7051995175</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252404</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982125</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982122</v>
@@ -26325,13 +26325,13 @@
         <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675041</v>
@@ -26340,22 +26340,22 @@
         <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316952</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26450,7 +26450,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-912471.3138439425</v>
+        <v>-912471.3138439429</v>
       </c>
       <c r="C6" t="n">
-        <v>416273.4318836494</v>
+        <v>416273.4318836498</v>
       </c>
       <c r="D6" t="n">
         <v>416273.4318836494</v>
       </c>
       <c r="E6" t="n">
-        <v>166090.6587000669</v>
+        <v>166403.3000289877</v>
       </c>
       <c r="F6" t="n">
-        <v>491503.120507422</v>
+        <v>491815.7618363437</v>
       </c>
       <c r="G6" t="n">
-        <v>491503.1205074221</v>
+        <v>491815.7618363432</v>
       </c>
       <c r="H6" t="n">
-        <v>491503.120507422</v>
+        <v>491815.7618363431</v>
       </c>
       <c r="I6" t="n">
-        <v>491503.120507422</v>
+        <v>491815.7618363432</v>
       </c>
       <c r="J6" t="n">
-        <v>273971.9181101445</v>
+        <v>274284.5594390658</v>
       </c>
       <c r="K6" t="n">
-        <v>491503.1205074222</v>
+        <v>491815.7618363432</v>
       </c>
       <c r="L6" t="n">
-        <v>491503.1205074221</v>
+        <v>491815.7618363434</v>
       </c>
       <c r="M6" t="n">
-        <v>406448.0925719101</v>
+        <v>406760.7339008313</v>
       </c>
       <c r="N6" t="n">
-        <v>491503.1205074222</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="O6" t="n">
-        <v>491503.120507422</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="P6" t="n">
-        <v>491503.1205074221</v>
+        <v>491815.7618363432</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>58.45810500191519</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>136.0481407176726</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W4" t="n">
-        <v>239.1104512034322</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>235.277801471992</v>
+        <v>235.2778014719924</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>47.29464513706782</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>108.8774149194505</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>154.2498708678733</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="36">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899116</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
